--- a/Template/findings/table2.xlsx
+++ b/Template/findings/table2.xlsx
@@ -602,7 +602,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.817</t>
+          <t>1.409</t>
         </is>
       </c>
       <c r="G8">
